--- a/Datos/Database by set/Set with text box/Xlsx sets/Planechase Anthology Tokens (TPCA).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Planechase Anthology Tokens (TPCA).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,455 +444,112 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>('Angel', ['Token Creature — Angel', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Angel</t>
+          <t>('Beast', ['Token Creature — Beast', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Boar', ['Token Creature — Boar', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Eldrazi', ['Token Creature — Eldrazi', 'Annihilator 1 (Whenever this creature attacks, defending player sacrifices a permanent.)', '7/7'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Eldrazi Spawn', ['Token Creature — Eldrazi Spawn', 'Sacrifice this creature: Add {C}.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Germ', ['Token Creature — Germ', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Boar</t>
+          <t>('Goat', ['Token Creature — Goat', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Boar</t>
+          <t>('Goblin', ['Token Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>('Hellion', ['Token Creature — Hellion', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>('Insect', ['Token Creature — Insect', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Token Creature — Dragon</t>
+          <t>('Ooze', ['Token Creature — Ooze', 'When this creature dies, create two 1/1 green Ooze creature tokens.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Plant', ['Token Creature — Plant', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>('Saproling', ['Token Creature — Saproling', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Eldrazi</t>
+          <t>('Spider', ['Token Creature — Spider', 'Reach', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Token Creature — Eldrazi</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Annihilator 1 (Whenever this creature attacks, defending player sacrifices a permanent.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>7/7</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Token Creature — Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sacrifice this creature: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Token Creature — Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sacrifice this creature: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Token Creature — Eldrazi Spawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sacrifice this creature: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Germ</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Token Creature — Germ</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Goat</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Token Creature — Goat</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Token Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Hellion</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Token Creature — Hellion</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Token Creature — Insect</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Token Creature — Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Token Creature — Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>When this creature dies, create two 1/1 green Ooze creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Token Creature — Plant</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Token Creature — Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Token Creature — Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Reach</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
